--- a/Miscellaneous/Metadata.xlsx
+++ b/Miscellaneous/Metadata.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28480" windowHeight="14580" tabRatio="393"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="203">
   <si>
     <t>WPD EastM</t>
   </si>
@@ -559,9 +559,6 @@
     <t>Power On Connections</t>
   </si>
   <si>
-    <t>Associated ICP</t>
-  </si>
-  <si>
     <t>g2 Energy</t>
   </si>
   <si>
@@ -616,9 +613,6 @@
     <t>http://www.scottishpower.com/pages/connections_use_of_system_and_metering_services.asp</t>
   </si>
   <si>
-    <t>Charging documents</t>
-  </si>
-  <si>
     <t>http://www.ukpowernetworks.co.uk/internet/en/about-us/regulatory-information/</t>
   </si>
   <si>
@@ -629,6 +623,15 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Associated connections provider</t>
+  </si>
+  <si>
+    <t>http://www.utilityassets.co.uk/</t>
+  </si>
+  <si>
+    <t>Website (direct link to charging documents where possible)</t>
   </si>
 </sst>
 </file>
@@ -701,7 +704,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="252">
+  <cellStyleXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -944,6 +947,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -994,7 +1000,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="241" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="252">
+  <cellStyles count="255">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1125,6 +1131,9 @@
     <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1607,10 +1616,10 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1657,7 +1666,7 @@
         <v>155</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>156</v>
@@ -1669,10 +1678,10 @@
         <v>126</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1713,10 +1722,10 @@
         <v>2366949</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1757,10 +1766,10 @@
         <v>2906953</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1801,10 +1810,10 @@
         <v>4112320</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1845,10 +1854,10 @@
         <v>80</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1889,10 +1898,10 @@
         <v>2366937</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1933,10 +1942,10 @@
         <v>4094290</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1977,10 +1986,10 @@
         <v>50</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2021,10 +2030,10 @@
         <v>2366906</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2065,10 +2074,10 @@
         <v>3929195</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2109,10 +2118,10 @@
         <v>3043097</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2153,10 +2162,10 @@
         <v>2366923</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2197,10 +2206,10 @@
         <v>2366985</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2241,10 +2250,10 @@
         <v>2366894</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2285,10 +2294,10 @@
         <v>3600574</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2322,7 +2331,7 @@
         <v>177</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2353,10 +2362,10 @@
         <v>4718806</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2390,7 +2399,7 @@
         <v>104</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2424,7 +2433,7 @@
         <v>177</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2455,10 +2464,10 @@
         <v>7330883</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2489,10 +2498,10 @@
         <v>6684589</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2523,10 +2532,10 @@
         <v>6339585</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2555,10 +2564,10 @@
         <v>9633506</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2587,7 +2596,7 @@
         <v>10068882</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N24" s="1"/>
     </row>
@@ -2615,7 +2624,7 @@
         <v>10326097</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N25" s="1"/>
     </row>
@@ -2641,9 +2650,11 @@
         <v>7255054</v>
       </c>
       <c r="M26" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N26" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
@@ -2661,7 +2672,7 @@
         <v>28</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J27" s="12"/>
       <c r="K27" s="1" t="s">
@@ -2701,6 +2712,7 @@
     <hyperlink ref="N9" r:id="rId20"/>
     <hyperlink ref="N10" r:id="rId21"/>
     <hyperlink ref="N11" r:id="rId22"/>
+    <hyperlink ref="N26" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Miscellaneous/Metadata.xlsx
+++ b/Miscellaneous/Metadata.xlsx
@@ -535,9 +535,6 @@
     <t>Utility Distribution Networks</t>
   </si>
   <si>
-    <t>G2ENERGY</t>
-  </si>
-  <si>
     <t>g2 Energy Networks</t>
   </si>
   <si>
@@ -632,6 +629,9 @@
   </si>
   <si>
     <t>Website (direct link to charging documents where possible)</t>
+  </si>
+  <si>
+    <t>http://www.udnetworks.co.uk/preview/regulated-business.html</t>
   </si>
 </sst>
 </file>
@@ -704,7 +704,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="255">
+  <cellStyleXfs count="261">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -947,6 +947,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1000,7 +1006,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="241" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="255">
+  <cellStyles count="261">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1134,6 +1140,12 @@
     <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1619,7 +1631,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1666,7 +1678,7 @@
         <v>155</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>156</v>
@@ -1678,10 +1690,10 @@
         <v>126</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1722,10 +1734,10 @@
         <v>2366949</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1766,10 +1778,10 @@
         <v>2906953</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1810,10 +1822,10 @@
         <v>4112320</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1854,10 +1866,10 @@
         <v>80</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1898,10 +1910,10 @@
         <v>2366937</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1942,10 +1954,10 @@
         <v>4094290</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1986,10 +1998,10 @@
         <v>50</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2030,10 +2042,10 @@
         <v>2366906</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2074,10 +2086,10 @@
         <v>3929195</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2118,10 +2130,10 @@
         <v>3043097</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2162,10 +2174,10 @@
         <v>2366923</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2206,10 +2218,10 @@
         <v>2366985</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2250,10 +2262,10 @@
         <v>2366894</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2294,10 +2306,10 @@
         <v>3600574</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2310,17 +2322,27 @@
       <c r="C16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
+      <c r="D16" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E16" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F16" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G16" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="H16" s="2">
         <v>24</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="12"/>
+      <c r="J16" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="K16" s="1" t="s">
         <v>119</v>
       </c>
@@ -2328,10 +2350,10 @@
         <v>4935008</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2344,17 +2366,27 @@
       <c r="C17" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
+      <c r="D17" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E17" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F17" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G17" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="H17" s="2">
         <v>25</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="12"/>
+      <c r="J17" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="K17" s="1" t="s">
         <v>111</v>
       </c>
@@ -2362,10 +2394,10 @@
         <v>4718806</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2378,17 +2410,27 @@
       <c r="C18" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
+      <c r="D18" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E18" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F18" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G18" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="H18" s="2">
         <v>26</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="J18" s="12"/>
+      <c r="J18" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="K18" s="1" t="s">
         <v>106</v>
       </c>
@@ -2399,7 +2441,7 @@
         <v>104</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2412,17 +2454,27 @@
       <c r="C19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
+      <c r="D19" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E19" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F19" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G19" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="H19" s="2">
         <v>27</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="J19" s="12"/>
+      <c r="J19" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="K19" s="1" t="s">
         <v>115</v>
       </c>
@@ -2430,10 +2482,10 @@
         <v>5581824</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2446,17 +2498,27 @@
       <c r="C20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
+      <c r="D20" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E20" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F20" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G20" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="H20" s="2">
         <v>29</v>
       </c>
       <c r="I20" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="J20" s="12"/>
+      <c r="J20" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="K20" s="1" t="s">
         <v>122</v>
       </c>
@@ -2464,10 +2526,10 @@
         <v>7330883</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2480,17 +2542,27 @@
       <c r="C21" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
+      <c r="D21" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E21" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F21" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G21" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="H21" s="2">
         <v>30</v>
       </c>
       <c r="I21" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="J21" s="12"/>
+      <c r="J21" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="K21" s="1" t="s">
         <v>128</v>
       </c>
@@ -2498,10 +2570,10 @@
         <v>6684589</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2514,17 +2586,27 @@
       <c r="C22" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
+      <c r="D22" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E22" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F22" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G22" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="H22" s="2">
         <v>31</v>
       </c>
       <c r="I22" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="J22" s="12"/>
+      <c r="J22" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="K22" s="1" t="s">
         <v>134</v>
       </c>
@@ -2532,10 +2614,10 @@
         <v>6339585</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N22" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2543,31 +2625,43 @@
         <v>122</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="D23" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E23" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F23" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G23" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H23" s="2">
+        <v>32</v>
+      </c>
       <c r="I23" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="J23" s="12"/>
+        <v>172</v>
+      </c>
+      <c r="J23" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="K23" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="L23" s="11">
-        <v>9633506</v>
+        <v>10068882</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>178</v>
       </c>
       <c r="N23" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2575,56 +2669,76 @@
         <v>123</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="D24" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E24" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F24" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G24" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="H24" s="2"/>
-      <c r="I24" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="J24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="K24" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="L24" s="11">
-        <v>10068882</v>
+        <v>9633506</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="N24" s="1"/>
+        <v>177</v>
+      </c>
+      <c r="N24" s="14" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="2">
         <v>124</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
+      <c r="D25" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E25" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F25" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G25" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
+      <c r="J25" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="K25" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L25" s="11">
         <v>10326097</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N25" s="1"/>
     </row>
@@ -2632,17 +2746,29 @@
       <c r="A26" s="2">
         <v>191</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
+      <c r="D26" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E26" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F26" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G26" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
+      <c r="J26" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="K26" s="1" t="s">
         <v>123</v>
       </c>
@@ -2650,31 +2776,43 @@
         <v>7255054</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N26" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2">
         <v>199</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
+      <c r="D27" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E27" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F27" s="12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G27" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="H27" s="2">
         <v>28</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="J27" s="12"/>
+        <v>182</v>
+      </c>
+      <c r="J27" s="12" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="K27" s="1" t="s">
         <v>124</v>
       </c>
@@ -2688,7 +2826,11 @@
       <c r="L28" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M27"/>
+  <autoFilter ref="A1:M27">
+    <sortState ref="A2:M27">
+      <sortCondition ref="A1:A27"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="N20" r:id="rId1"/>
     <hyperlink ref="N19" r:id="rId2"/>
@@ -2713,6 +2855,7 @@
     <hyperlink ref="N10" r:id="rId21"/>
     <hyperlink ref="N11" r:id="rId22"/>
     <hyperlink ref="N26" r:id="rId23"/>
+    <hyperlink ref="N24" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
